--- a/Dataset/Folds/Fold_3/Excel/58.xlsx
+++ b/Dataset/Folds/Fold_3/Excel/58.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8330" uniqueCount="1193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9314" uniqueCount="1311">
   <si>
     <t>Doi</t>
   </si>
@@ -3983,6 +3983,389 @@
   </si>
   <si>
     <t>[Souheil%Zayet%souhail.zayet@gmail.com%1,                           Timothee%Klopfenstein%NULL%1,                           Julien%Mercier%NULL%1,                           N’dri Juliette%Kadiane-Oussou%NULL%1,                           Ludovic%Lan Cheong Wah%NULL%1,                           Pierre-Yves%Royer%NULL%1,                           Lynda%Toko%NULL%1,                           Vincent%Gendrin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Juliana%Amorim dos Santos%NULL%1,                            Ana Gabriela Costa%Normando%NULL%1,                            Rainier Luiz%Carvalho da Silva%NULL%1,                            Renata Monteiro%De Paula%NULL%1,                            Allan Christian%Cembranel%NULL%1,                            Alan Roger%Santos-Silva%NULL%1,                            Eliete Neves Silva%Guerra%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Á.%Beltrán‐Corbellini%beltran_corbellini@hotmail.com%2,                            J. L.%Chico‐García%NULL%4,                            J. L.%Chico‐García%NULL%0,                            J.%Martínez‐Poles%NULL%2,                            F.%Rodríguez‐Jorge%NULL%2,                            E.%Natera‐Villalba%NULL%2,                            J.%Gómez‐Corral%NULL%4,                            J.%Gómez‐Corral%NULL%0,                            A.%Gómez‐López%NULL%2,                            E.%Monreal%NULL%2,                            P.%Parra‐Díaz%NULL%2,                            J. L.%Cortés‐Cuevas%NULL%4,                            J. L.%Cortés‐Cuevas%NULL%0,                            J. C.%Galán%NULL%2,                            C.%Fragola‐Arnau%NULL%2,                            J.%Porta‐Etessam%NULL%2,                            J.%Masjuan%NULL%2,                            A.%Alonso‐Cánovas%NULL%4,                            A.%Alonso‐Cánovas%NULL%0]</t>
+  </si>
+  <si>
+    <t>[François%Bénézit%NULL%2,                            Paul%Le Turnier%NULL%2,                            Charles%Declerck%NULL%2,                            Cécile%Paillé%NULL%2,                            Matthieu%Revest%NULL%2,                            Vincent%Dubée%NULL%2,                            Pierre%Tattevin%pierre.tattevin@chu-rennes.fr%2,                            Cédric%Arvieux%NULL%2,                            Marion%Baldeyrou%NULL%2,                            Jean-Marc%Chapplain%NULL%2,                            Pauline%Comacle%NULL%2,                            Solène%Patrat-Delon%NULL%2,                            Anne%Maillard%NULL%2,                            Mélanie%Poinot%NULL%2,                            Charlotte%Pronier%NULL%2,                            Faouzi%Souala%NULL%2,                            Vincent%Thibault%NULL%2,                            Pierre%Abgueguen%NULL%2,                            Hélène%Cormier%NULL%2,                            Valérie%Delbos%NULL%2,                            Marine%de la Chapelle%NULL%2,                            Alexandra%Ducancelle%NULL%2,                            Rafael%Mahieu%NULL%2,                            Valérie%Rabier%NULL%2,                            Sami%Rehaiem%NULL%2,                            Yves%Vandamme%NULL%2,                            Charlotte%Biron%NULL%2,                            Jeanne%Brochon%NULL%2,                            David%Boutoille%NULL%0,                            Marie%Chauveau%NULL%2,                            Colin%Deschanvres%NULL%2,                            Benjamin J%Gaborit%NULL%2,                            Joël%Jenvrin%NULL%2,                            Raphaël%Lecomte%NULL%2,                            Maeva%Lefebvre%NULL%2,                            François%Raffi%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Filiz%Cebeci Kahraman%cebecifiliz@yahoo.com%1,                            Hülya%Çaşkurlu%NULL%2,                            Hülya%Çaşkurlu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Eléonore%Chary%NULL%1,                            Florent%Carsuzaa%NULL%1,                            Jean-Paul%Trijolet%NULL%2,                            Jean-Paul%Trijolet%NULL%0,                            Anne-Laure%Capitaine%NULL%1,                            Mariam%Roncato-Saberan%NULL%1,                            Kevin%Fouet%NULL%1,                            France%Cazenave-Roblot%NULL%0,                            Mélanie%Catroux%NULL%1,                            Caroline%Allix-Beguec%NULL%1,                            Xavier%Dufour%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andrea%De Maria%de-maria@unige.it%1,                            Paola%Varese%NULL%2,                            Paola%Varese%NULL%0,                            Chiara%Dentone%NULL%1,                            Emanuela%Barisione%NULL%1,                            Matteo%Bassetti%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Valeria%Dell’Era%valeria.dellera@gmail.com%1,                            Filippo%Farri%NULL%2,                            Filippo%Farri%NULL%0,                            Giacomo%Garzaro%NULL%1,                            Miriam%Gatto%NULL%1,                            Paolo%Aluffi Valletti%NULL%0,                            Massimiliano%Garzaro%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Matteo%Gelardi%NULL%1,                            Eleonora%Trecca%NULL%1,                            Michele%Cassano%NULL%1,                            Giorgio%Ciprandi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andrea%Giacomelli%andrea.giacomelli@unimi.it%0,                            Laura%Pezzati%NULL%4,                            Laura%Pezzati%NULL%0,                            Federico%Conti%NULL%2,                            Dario%Bernacchia%NULL%0,                            Matteo%Siano%NULL%0,                            Letizia%Oreni%NULL%0,                            Stefano%Rusconi%NULL%0,                            Cristina%Gervasoni%NULL%2,                            Anna Lisa%Ridolfo%NULL%0,                            Giuliano%Rizzardini%NULL%0,                            Spinello%Antinori%NULL%0,                            Massimo%Galli%NULL%0,                            Massimo%Galli%NULL%0]</t>
+  </si>
+  <si>
+    <t>[G.-u.%Kim%NULL%1,                            M.-J.%Kim%NULL%1,                            S.H.%Ra%NULL%1,                            J.%Lee%NULL%1,                            S.%Bae%NULL%1,                            J.%Jung%NULL%1,                            S.-H.%Kim%kimsunghanmd@hotmail.com%1]</t>
+  </si>
+  <si>
+    <t>[T.%Klopfenstein%NULL%2,                            N.J.%Kadiane-Oussou%NULL%2,                            L.%Toko%NULL%2,                            P.-Y.%Royer%NULL%2,                            Q.%Lepiller%NULL%2,                            V.%Gendrin%NULL%2,                            S.%Zayet%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Marjolein F. Q.%Kluytmans-van den Bergh%NULL%1,                            Anton G. M.%Buiting%NULL%1,                            Suzan D.%Pas%NULL%1,                            Robbert G.%Bentvelsen%NULL%1,                            Wouter%van den Bijllaardt%NULL%1,                            Anne J. G.%van Oudheusden%NULL%1,                            Miranda M. L.%van Rijen%NULL%1,                            Jaco J.%Verweij%NULL%1,                            Marion P. G.%Koopmans%NULL%1,                            Jan A. J. W.%Kluytmans%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Frédéric%Lapostolle%frederic.lapostolle@aphp.fr%1,                            Elodie%Schneider%NULL%1,                            Isabelle%Vianu%NULL%1,                            Guillaume%Dollet%NULL%1,                            Bastien%Roche%NULL%1,                            Julia%Berdah%NULL%1,                            Julie%Michel%NULL%1,                            Laurent%Goix%NULL%1,                            Erick%Chanzy%NULL%1,                            Tomislav%Petrovic%NULL%1,                            Frédéric%Adnet%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jerome R.%Lechien%Jerome.Lechien@umons.ac.be%2,                            Carlos M.%Chiesa-Estomba%NULL%2,                            Daniele R.%De Siati%NULL%2,                            Mihaela%Horoi%NULL%2,                            Serge D.%Le Bon%NULL%2,                            Alexandra%Rodriguez%NULL%2,                            Didier%Dequanter%NULL%2,                            Serge%Blecic%NULL%2,                            Fahd%El Afia%NULL%2,                            Lea%Distinguin%NULL%2,                            Younes%Chekkoury-Idrissi%NULL%2,                            Stéphane%Hans%NULL%2,                            Irene Lopez%Delgado%NULL%2,                            Christian%Calvo-Henriquez%NULL%2,                            Philippe%Lavigne%NULL%2,                            Chiara%Falanga%NULL%2,                            Maria Rosaria%Barillari%NULL%2,                            Giovanni%Cammaroto%NULL%2,                            Mohamad%Khalife%NULL%2,                            Pierre%Leich%NULL%2,                            Christel%Souchay%NULL%2,                            Camelia%Rossi%NULL%2,                            Fabrice%Journe%NULL%2,                            Julien%Hsieh%NULL%2,                            Myriam%Edjlali%NULL%2,                            Robert%Carlier%NULL%2,                            Laurence%Ris%NULL%2,                            Andrea%Lovato%NULL%2,                            Cosimo%De Filippis%NULL%2,                            Frederique%Coppee%NULL%2,                            Nicolas%Fakhry%NULL%2,                            Tareck%Ayad%NULL%2,                            Sven%Saussez%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Daniel J.%Lee%NULL%1,                            Joel%Lockwood%NULL%2,                            Joel%Lockwood%NULL%0,                            Paul%Das%NULL%1,                            Ri%Wang%NULL%1,                            Eitan%Grinspun%NULL%1,                            John M.%Lee%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yonghyun%Lee%NULL%1,                            Pokkee%Min%NULL%2,                            Pokkee%Min%NULL%0,                            Seonggu%Lee%NULL%2,                            Seonggu%Lee%NULL%0,                            Shin-Woo%Kim%NULL%0,                            Shin-Woo%Kim%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Claudio%Liguori%NULL%3,                            Mariangela%Pierantozzi%NULL%1,                            Matteo%Spanetta%NULL%1,                            Loredana%Sarmati%NULL%1,                            Novella%Cesta%NULL%1,                            Marco%Iannetta%NULL%1,                            Josuel%Ora%NULL%1,                            Grazia Genga%Mina%NULL%1,                            Ermanno%Puxeddu%NULL%1,                            Ottavia%Balbi%NULL%1,                            Gabriella%Pezzuto%NULL%1,                            Andrea%Magrini%NULL%1,                            Paola%Rogliani%NULL%1,                            Massimo%Andreoni%NULL%1,                            Nicola Biagio%Mercuri%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carmen%Martín Carreras‐Presas%carmen.martin2@universidadeuropea.es%1,                            Juan%Amaro Sánchez%NULL%2,                            Juan%Amaro Sánchez%NULL%0,                            Antonio Francisco%López‐Sánchez%NULL%1,                            Enric%Jané‐Salas%NULL%1,                            Maria Luisa%Somacarrera Pérez%NULL%2,                            Maria Luisa%Somacarrera Pérez%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Simone%Meini%simonemeini2@gmail.com%1,                            Lorenzo Roberto%Suardi%NULL%2,                            Lorenzo Roberto%Suardi%NULL%0,                            Michele%Busoni%NULL%1,                            Anna Teresa%Roberts%NULL%1,                            Alberto%Fortini%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Muayad A.%Merza%NULL%1,                            Azad A.%Haleem Al Mezori%NULL%1,                            Hakar Mustafa%Mohammed%NULL%1,                            Deldar Morad%Abdulah%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ji Yun%Noh%NULL%2,                            Jin Gu%Yoon%NULL%3,                            Hye%Seong%NULL%3,                            Won Suk%Choi%NULL%1,                            Jang Wook%Sohn%NULL%1,                            Hee Jin%Cheong%NULL%4,                            Woo Joo%Kim%NULL%4,                            Joon Young%Song%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Alberto%Paderno%NULL%1,                            Alberto%Schreiber%NULL%1,                            Alberto%Grammatica%albertogrammatica@libero.it%1,                            Elena%Raffetti%NULL%2,                            Elena%Raffetti%NULL%0,                            Michele%Tomasoni%NULL%1,                            Tommaso%Gualtieri%NULL%1,                            Stefano%Taboni%NULL%1,                            Silvia%Zorzi%NULL%1,                            Davide%Lombardi%NULL%1,                            Alberto%Deganello%NULL%1,                            Luca Oscar%Redaelli De Zinis%NULL%1,                            Roberto%Maroldi%NULL%1,                            Davide%Mattavelli%NULL%1]</t>
+  </si>
+  <si>
+    <t>[A.%Patel%NULL%1,                            E.%Charani%NULL%1,                            D.%Ariyanayagam%NULL%1,                            A.%Abdulaal%NULL%1,                            S.J.%Denny%NULL%1,                            N.%Mughal%NULL%1,                            L.S.P.%Moore%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Bayushi Eka%Putra%NULL%1,                            Suko%Adiarto%NULL%1,                            Santi Rahayu%Dewayanti%NULL%1,                            Dafsah Arifa%Juzar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[İbrahim%Sayin%NULL%1,                            Kadriye Kart%Yaşar%NULL%1,                            Zahide Mine%Yazici%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ciro Dantas%Soares%NULL%1,                            Rejane Andrade%de Carvalho%NULL%1,                            Kalline Andrade%de Carvalho%NULL%1,                            Maria Goretti Freire%de Carvalho%NULL%1,                            Oslei Paes%de Almeida%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Marlene M.%Speth%NULL%1,                            Thirza%Singer-Cornelius%NULL%1,                            Michael%Oberle%NULL%1,                            Isabelle%Gengler%NULL%1,                            Steffi J.%Brockmeier%NULL%1,                            Ahmad R.%Sedaghat%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ibrahim%Sultan%sultani@upmc.edu%1,                            Andreas%Habertheuer%NULL%2,                            Andreas%Habertheuer%NULL%0,                            Asad A.%Usman%NULL%2,                            Asad A.%Usman%NULL%0,                            Arman%Kilic%NULL%1,                            Eric%Gnall%NULL%2,                            Eric%Gnall%NULL%0,                            Michael E.%Friscia%NULL%1,                            Dmitriy%Zubkus%NULL%1,                            Hitoshi%Hirose%NULL%2,                            Pablo%Sanchez%NULL%1,                            Olugbenga%Okusanya%NULL%1,                            Wilson Y.%Szeto%NULL%1,                            Jacob%Gutsche%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Luigi Angelo%Vaira%luigi.vaira@gmail.com%2,                            Claire%Hopkins%NULL%2,                            Claire%Hopkins%NULL%0,                            Giovanni%Salzano%NULL%2,                            Marzia%Petrocelli%NULL%2,                            Andrea%Melis%NULL%1,                            Marco%Cucurullo%NULL%1,                            Mario%Ferrari%NULL%1,                            Laura%Gagliardini%NULL%1,                            Carlotta%Pipolo%NULL%1,                            Giovanna%Deiana%NULL%3,                            Vito%Fiore%NULL%1,                            Andrea%De Vito%NULL%0,                            Nicola%Turra%NULL%1,                            Sara%Canu%NULL%1,                            Angelantonio%Maglio%NULL%1,                            Antonello%Serra%NULL%3,                            Antonello%Serra%NULL%0,                            Francesco%Bussu%NULL%2,                            Giordano%Madeddu%NULL%0,                            Sergio%Babudieri%NULL%0,                            Alessandro%Giuseppe Fois%NULL%1,                            Pietro%Pirina%NULL%0,                            Francesco A.%Salzano%NULL%1,                            Pierluigi%De Riu%NULL%1,                            Federico%Biglioli%NULL%1,                            Giacomo%De Riu%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Carol H.%Yan%c1yan@health.ucsd.edu%3,                            Farhoud%Faraji%NULL%6,                            Farhoud%Faraji%NULL%0,                            Divya P.%Prajapati%NULL%4,                            Benjamin T.%Ostrander%NULL%2,                            Adam S.%DeConde%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Souheil%Zayet%souhail.zayet@gmail.com%1,                            Timothee%Klopfenstein%NULL%1,                            Julien%Mercier%NULL%1,                            N’dri Juliette%Kadiane-Oussou%NULL%1,                            Ludovic%Lan Cheong Wah%NULL%1,                            Pierre-Yves%Royer%NULL%1,                            Lynda%Toko%NULL%1,                            Vincent%Gendrin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Juliana%Amorim dos Santos%NULL%1,                             Ana Gabriela Costa%Normando%NULL%1,                             Rainier Luiz%Carvalho da Silva%NULL%1,                             Renata Monteiro%De Paula%NULL%1,                             Allan Christian%Cembranel%NULL%1,                             Alan Roger%Santos-Silva%NULL%1,                             Eliete Neves Silva%Guerra%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Á.%Beltrán‐Corbellini%beltran_corbellini@hotmail.com%2,                             J. L.%Chico‐García%NULL%4,                             J. L.%Chico‐García%NULL%0,                             J.%Martínez‐Poles%NULL%2,                             F.%Rodríguez‐Jorge%NULL%2,                             E.%Natera‐Villalba%NULL%2,                             J.%Gómez‐Corral%NULL%4,                             J.%Gómez‐Corral%NULL%0,                             A.%Gómez‐López%NULL%2,                             E.%Monreal%NULL%2,                             P.%Parra‐Díaz%NULL%2,                             J. L.%Cortés‐Cuevas%NULL%4,                             J. L.%Cortés‐Cuevas%NULL%0,                             J. C.%Galán%NULL%2,                             C.%Fragola‐Arnau%NULL%2,                             J.%Porta‐Etessam%NULL%2,                             J.%Masjuan%NULL%2,                             A.%Alonso‐Cánovas%NULL%4,                             A.%Alonso‐Cánovas%NULL%0]</t>
+  </si>
+  <si>
+    <t>[François%Bénézit%NULL%2,                             Paul%Le Turnier%NULL%2,                             Charles%Declerck%NULL%2,                             Cécile%Paillé%NULL%2,                             Matthieu%Revest%NULL%2,                             Vincent%Dubée%NULL%2,                             Pierre%Tattevin%pierre.tattevin@chu-rennes.fr%2,                             Cédric%Arvieux%NULL%2,                             Marion%Baldeyrou%NULL%2,                             Jean-Marc%Chapplain%NULL%2,                             Pauline%Comacle%NULL%2,                             Solène%Patrat-Delon%NULL%2,                             Anne%Maillard%NULL%2,                             Mélanie%Poinot%NULL%2,                             Charlotte%Pronier%NULL%2,                             Faouzi%Souala%NULL%2,                             Vincent%Thibault%NULL%2,                             Pierre%Abgueguen%NULL%2,                             Hélène%Cormier%NULL%2,                             Valérie%Delbos%NULL%2,                             Marine%de la Chapelle%NULL%2,                             Alexandra%Ducancelle%NULL%2,                             Rafael%Mahieu%NULL%2,                             Valérie%Rabier%NULL%2,                             Sami%Rehaiem%NULL%2,                             Yves%Vandamme%NULL%2,                             Charlotte%Biron%NULL%2,                             Jeanne%Brochon%NULL%2,                             David%Boutoille%NULL%0,                             Marie%Chauveau%NULL%2,                             Colin%Deschanvres%NULL%2,                             Benjamin J%Gaborit%NULL%2,                             Joël%Jenvrin%NULL%2,                             Raphaël%Lecomte%NULL%2,                             Maeva%Lefebvre%NULL%2,                             François%Raffi%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Filiz%Cebeci Kahraman%cebecifiliz@yahoo.com%1,                             Hülya%Çaşkurlu%NULL%2,                             Hülya%Çaşkurlu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Eléonore%Chary%NULL%1,                             Florent%Carsuzaa%NULL%1,                             Jean-Paul%Trijolet%NULL%2,                             Jean-Paul%Trijolet%NULL%0,                             Anne-Laure%Capitaine%NULL%1,                             Mariam%Roncato-Saberan%NULL%1,                             Kevin%Fouet%NULL%1,                             France%Cazenave-Roblot%NULL%0,                             Mélanie%Catroux%NULL%1,                             Caroline%Allix-Beguec%NULL%1,                             Xavier%Dufour%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andrea%De Maria%de-maria@unige.it%1,                             Paola%Varese%NULL%2,                             Paola%Varese%NULL%0,                             Chiara%Dentone%NULL%1,                             Emanuela%Barisione%NULL%1,                             Matteo%Bassetti%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Valeria%Dell’Era%valeria.dellera@gmail.com%1,                             Filippo%Farri%NULL%2,                             Filippo%Farri%NULL%0,                             Giacomo%Garzaro%NULL%1,                             Miriam%Gatto%NULL%1,                             Paolo%Aluffi Valletti%NULL%0,                             Massimiliano%Garzaro%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Matteo%Gelardi%NULL%1,                             Eleonora%Trecca%NULL%1,                             Michele%Cassano%NULL%1,                             Giorgio%Ciprandi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andrea%Giacomelli%andrea.giacomelli@unimi.it%0,                             Laura%Pezzati%NULL%4,                             Laura%Pezzati%NULL%0,                             Federico%Conti%NULL%2,                             Dario%Bernacchia%NULL%0,                             Matteo%Siano%NULL%0,                             Letizia%Oreni%NULL%0,                             Stefano%Rusconi%NULL%0,                             Cristina%Gervasoni%NULL%2,                             Anna Lisa%Ridolfo%NULL%0,                             Giuliano%Rizzardini%NULL%0,                             Spinello%Antinori%NULL%0,                             Massimo%Galli%NULL%0,                             Massimo%Galli%NULL%0]</t>
+  </si>
+  <si>
+    <t>[G.-u.%Kim%NULL%1,                             M.-J.%Kim%NULL%1,                             S.H.%Ra%NULL%1,                             J.%Lee%NULL%1,                             S.%Bae%NULL%1,                             J.%Jung%NULL%1,                             S.-H.%Kim%kimsunghanmd@hotmail.com%1]</t>
+  </si>
+  <si>
+    <t>[T.%Klopfenstein%NULL%2,                             N.J.%Kadiane-Oussou%NULL%2,                             L.%Toko%NULL%2,                             P.-Y.%Royer%NULL%2,                             Q.%Lepiller%NULL%2,                             V.%Gendrin%NULL%2,                             S.%Zayet%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Marjolein F. Q.%Kluytmans-van den Bergh%NULL%1,                             Anton G. M.%Buiting%NULL%1,                             Suzan D.%Pas%NULL%1,                             Robbert G.%Bentvelsen%NULL%1,                             Wouter%van den Bijllaardt%NULL%1,                             Anne J. G.%van Oudheusden%NULL%1,                             Miranda M. L.%van Rijen%NULL%1,                             Jaco J.%Verweij%NULL%1,                             Marion P. G.%Koopmans%NULL%1,                             Jan A. J. W.%Kluytmans%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Frédéric%Lapostolle%frederic.lapostolle@aphp.fr%1,                             Elodie%Schneider%NULL%1,                             Isabelle%Vianu%NULL%1,                             Guillaume%Dollet%NULL%1,                             Bastien%Roche%NULL%1,                             Julia%Berdah%NULL%1,                             Julie%Michel%NULL%1,                             Laurent%Goix%NULL%1,                             Erick%Chanzy%NULL%1,                             Tomislav%Petrovic%NULL%1,                             Frédéric%Adnet%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jerome R.%Lechien%Jerome.Lechien@umons.ac.be%2,                             Carlos M.%Chiesa-Estomba%NULL%2,                             Daniele R.%De Siati%NULL%2,                             Mihaela%Horoi%NULL%2,                             Serge D.%Le Bon%NULL%2,                             Alexandra%Rodriguez%NULL%2,                             Didier%Dequanter%NULL%2,                             Serge%Blecic%NULL%2,                             Fahd%El Afia%NULL%2,                             Lea%Distinguin%NULL%2,                             Younes%Chekkoury-Idrissi%NULL%2,                             Stéphane%Hans%NULL%2,                             Irene Lopez%Delgado%NULL%2,                             Christian%Calvo-Henriquez%NULL%2,                             Philippe%Lavigne%NULL%2,                             Chiara%Falanga%NULL%2,                             Maria Rosaria%Barillari%NULL%2,                             Giovanni%Cammaroto%NULL%2,                             Mohamad%Khalife%NULL%2,                             Pierre%Leich%NULL%2,                             Christel%Souchay%NULL%2,                             Camelia%Rossi%NULL%2,                             Fabrice%Journe%NULL%2,                             Julien%Hsieh%NULL%2,                             Myriam%Edjlali%NULL%2,                             Robert%Carlier%NULL%2,                             Laurence%Ris%NULL%2,                             Andrea%Lovato%NULL%2,                             Cosimo%De Filippis%NULL%2,                             Frederique%Coppee%NULL%2,                             Nicolas%Fakhry%NULL%2,                             Tareck%Ayad%NULL%2,                             Sven%Saussez%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Daniel J.%Lee%NULL%1,                             Joel%Lockwood%NULL%2,                             Joel%Lockwood%NULL%0,                             Paul%Das%NULL%1,                             Ri%Wang%NULL%1,                             Eitan%Grinspun%NULL%1,                             John M.%Lee%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yonghyun%Lee%NULL%1,                             Pokkee%Min%NULL%2,                             Pokkee%Min%NULL%0,                             Seonggu%Lee%NULL%2,                             Seonggu%Lee%NULL%0,                             Shin-Woo%Kim%NULL%0,                             Shin-Woo%Kim%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Claudio%Liguori%NULL%3,                             Mariangela%Pierantozzi%NULL%1,                             Matteo%Spanetta%NULL%1,                             Loredana%Sarmati%NULL%1,                             Novella%Cesta%NULL%1,                             Marco%Iannetta%NULL%1,                             Josuel%Ora%NULL%1,                             Grazia Genga%Mina%NULL%1,                             Ermanno%Puxeddu%NULL%1,                             Ottavia%Balbi%NULL%1,                             Gabriella%Pezzuto%NULL%1,                             Andrea%Magrini%NULL%1,                             Paola%Rogliani%NULL%1,                             Massimo%Andreoni%NULL%1,                             Nicola Biagio%Mercuri%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carmen%Martín Carreras‐Presas%carmen.martin2@universidadeuropea.es%1,                             Juan%Amaro Sánchez%NULL%2,                             Juan%Amaro Sánchez%NULL%0,                             Antonio Francisco%López‐Sánchez%NULL%1,                             Enric%Jané‐Salas%NULL%1,                             Maria Luisa%Somacarrera Pérez%NULL%2,                             Maria Luisa%Somacarrera Pérez%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Simone%Meini%simonemeini2@gmail.com%1,                             Lorenzo Roberto%Suardi%NULL%2,                             Lorenzo Roberto%Suardi%NULL%0,                             Michele%Busoni%NULL%1,                             Anna Teresa%Roberts%NULL%1,                             Alberto%Fortini%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Muayad A.%Merza%NULL%1,                             Azad A.%Haleem Al Mezori%NULL%1,                             Hakar Mustafa%Mohammed%NULL%1,                             Deldar Morad%Abdulah%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ji Yun%Noh%NULL%2,                             Jin Gu%Yoon%NULL%3,                             Hye%Seong%NULL%3,                             Won Suk%Choi%NULL%1,                             Jang Wook%Sohn%NULL%1,                             Hee Jin%Cheong%NULL%4,                             Woo Joo%Kim%NULL%4,                             Joon Young%Song%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Alberto%Paderno%NULL%1,                             Alberto%Schreiber%NULL%1,                             Alberto%Grammatica%albertogrammatica@libero.it%1,                             Elena%Raffetti%NULL%2,                             Elena%Raffetti%NULL%0,                             Michele%Tomasoni%NULL%1,                             Tommaso%Gualtieri%NULL%1,                             Stefano%Taboni%NULL%1,                             Silvia%Zorzi%NULL%1,                             Davide%Lombardi%NULL%1,                             Alberto%Deganello%NULL%1,                             Luca Oscar%Redaelli De Zinis%NULL%1,                             Roberto%Maroldi%NULL%1,                             Davide%Mattavelli%NULL%1]</t>
+  </si>
+  <si>
+    <t>[A.%Patel%NULL%1,                             E.%Charani%NULL%1,                             D.%Ariyanayagam%NULL%1,                             A.%Abdulaal%NULL%1,                             S.J.%Denny%NULL%1,                             N.%Mughal%NULL%1,                             L.S.P.%Moore%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Bayushi Eka%Putra%NULL%1,                             Suko%Adiarto%NULL%1,                             Santi Rahayu%Dewayanti%NULL%1,                             Dafsah Arifa%Juzar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[İbrahim%Sayin%NULL%1,                             Kadriye Kart%Yaşar%NULL%1,                             Zahide Mine%Yazici%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ciro Dantas%Soares%NULL%1,                             Rejane Andrade%de Carvalho%NULL%1,                             Kalline Andrade%de Carvalho%NULL%1,                             Maria Goretti Freire%de Carvalho%NULL%1,                             Oslei Paes%de Almeida%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Marlene M.%Speth%NULL%1,                             Thirza%Singer-Cornelius%NULL%1,                             Michael%Oberle%NULL%1,                             Isabelle%Gengler%NULL%1,                             Steffi J.%Brockmeier%NULL%1,                             Ahmad R.%Sedaghat%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ibrahim%Sultan%sultani@upmc.edu%1,                             Andreas%Habertheuer%NULL%2,                             Andreas%Habertheuer%NULL%0,                             Asad A.%Usman%NULL%2,                             Asad A.%Usman%NULL%0,                             Arman%Kilic%NULL%1,                             Eric%Gnall%NULL%2,                             Eric%Gnall%NULL%0,                             Michael E.%Friscia%NULL%1,                             Dmitriy%Zubkus%NULL%1,                             Hitoshi%Hirose%NULL%2,                             Pablo%Sanchez%NULL%1,                             Olugbenga%Okusanya%NULL%1,                             Wilson Y.%Szeto%NULL%1,                             Jacob%Gutsche%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Luigi Angelo%Vaira%luigi.vaira@gmail.com%2,                             Claire%Hopkins%NULL%2,                             Claire%Hopkins%NULL%0,                             Giovanni%Salzano%NULL%2,                             Marzia%Petrocelli%NULL%2,                             Andrea%Melis%NULL%1,                             Marco%Cucurullo%NULL%1,                             Mario%Ferrari%NULL%1,                             Laura%Gagliardini%NULL%1,                             Carlotta%Pipolo%NULL%1,                             Giovanna%Deiana%NULL%3,                             Vito%Fiore%NULL%1,                             Andrea%De Vito%NULL%0,                             Nicola%Turra%NULL%1,                             Sara%Canu%NULL%1,                             Angelantonio%Maglio%NULL%1,                             Antonello%Serra%NULL%3,                             Antonello%Serra%NULL%0,                             Francesco%Bussu%NULL%2,                             Giordano%Madeddu%NULL%0,                             Sergio%Babudieri%NULL%0,                             Alessandro%Giuseppe Fois%NULL%1,                             Pietro%Pirina%NULL%0,                             Francesco A.%Salzano%NULL%1,                             Pierluigi%De Riu%NULL%1,                             Federico%Biglioli%NULL%1,                             Giacomo%De Riu%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Carol H.%Yan%c1yan@health.ucsd.edu%3,                             Farhoud%Faraji%NULL%6,                             Farhoud%Faraji%NULL%0,                             Divya P.%Prajapati%NULL%4,                             Benjamin T.%Ostrander%NULL%2,                             Adam S.%DeConde%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Souheil%Zayet%souhail.zayet@gmail.com%1,                             Timothee%Klopfenstein%NULL%1,                             Julien%Mercier%NULL%1,                             N’dri Juliette%Kadiane-Oussou%NULL%1,                             Ludovic%Lan Cheong Wah%NULL%1,                             Pierre-Yves%Royer%NULL%1,                             Lynda%Toko%NULL%1,                             Vincent%Gendrin%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Some oral manifestations have been observed in patients with coronavirus disease 2019 (COVID-19).
+ However, there is still a question about whether these lesions are due to coronavirus infection or secondary manifestations resulting from the patient's systemic condition.
+ Thus, this article aims to report an additional case of an oral condition in a patient diagnosed with COVID-19. Our patient, a sixty-seven-year-old Caucasian man, tested positive to coronavirus and presented oral manifestations such as recurrent herpes simplex, candidiasis, and geographic tongue.
+ We support the argument that some oral conditions could be secondary to the deterioration of systemic health or due to treatments for COVID-19. The present case report highlights the importance of including dentists in the intensive care unit multi-professional team to improve oral health in critical patients, not only COVID-19 patients, but also, to contribute to evidence-based and decision-making in managing infectious diseases.
+</t>
+  </si>
+  <si>
+    <t>[Juliana%Amorim dos Santos%NULL%0, Ana Gabriela Costa%Normando%NULL%1, Rainier Luiz%Carvalho da Silva%NULL%1, Renata Monteiro%De Paula%NULL%1, Allan Christian%Cembranel%NULL%1, Alan Roger%Santos-Silva%NULL%1, Eliete Neves Silva%Guerra%NULL%1]</t>
+  </si>
+  <si>
+    <t>The Author(s). Published by Elsevier Ltd on behalf of International Society for Infectious Diseases.</t>
+  </si>
+  <si>
+    <t>[Á.%Beltrán‐Corbellini%beltran_corbellini@hotmail.com%0, J. L.%Chico‐García%NULL%4, J. L.%Chico‐García%NULL%0, J.%Martínez‐Poles%NULL%2, F.%Rodríguez‐Jorge%NULL%2, E.%Natera‐Villalba%NULL%2, J.%Gómez‐Corral%NULL%4, J.%Gómez‐Corral%NULL%0, A.%Gómez‐López%NULL%2, E.%Monreal%NULL%2, P.%Parra‐Díaz%NULL%2, J. L.%Cortés‐Cuevas%NULL%4, J. L.%Cortés‐Cuevas%NULL%0, J. C.%Galán%NULL%2, C.%Fragola‐Arnau%NULL%2, J.%Porta‐Etessam%NULL%2, J.%Masjuan%NULL%2, A.%Alonso‐Cánovas%NULL%4, A.%Alonso‐Cánovas%NULL%0]</t>
+  </si>
+  <si>
+    <t>John Wiley and Sons Inc.</t>
+  </si>
+  <si>
+    <t>[François%Bénézit%NULL%0, Paul%Le Turnier%NULL%2, Charles%Declerck%NULL%2, Cécile%Paillé%NULL%2, Matthieu%Revest%NULL%2, Vincent%Dubée%NULL%2, Pierre%Tattevin%pierre.tattevin@chu-rennes.fr%2, Cédric%Arvieux%NULL%2, Marion%Baldeyrou%NULL%2, Jean-Marc%Chapplain%NULL%2, Pauline%Comacle%NULL%2, Solène%Patrat-Delon%NULL%2, Anne%Maillard%NULL%2, Mélanie%Poinot%NULL%2, Charlotte%Pronier%NULL%2, Faouzi%Souala%NULL%2, Vincent%Thibault%NULL%2, Pierre%Abgueguen%NULL%2, Hélène%Cormier%NULL%2, Valérie%Delbos%NULL%2, Marine%de la Chapelle%NULL%2, Alexandra%Ducancelle%NULL%2, Rafael%Mahieu%NULL%2, Valérie%Rabier%NULL%2, Sami%Rehaiem%NULL%2, Yves%Vandamme%NULL%2, Charlotte%Biron%NULL%2, Jeanne%Brochon%NULL%2, David%Boutoille%NULL%0, Marie%Chauveau%NULL%2, Colin%Deschanvres%NULL%2, Benjamin J%Gaborit%NULL%2, Joël%Jenvrin%NULL%2, Raphaël%Lecomte%NULL%0, Maeva%Lefebvre%NULL%2, François%Raffi%NULL%2]</t>
+  </si>
+  <si>
+    <t>Elsevier Ltd.</t>
+  </si>
+  <si>
+    <t>[Filiz%Cebeci Kahraman%cebecifiliz@yahoo.com%0, Hülya%Çaşkurlu%NULL%2, Hülya%Çaşkurlu%NULL%0]</t>
+  </si>
+  <si>
+    <t>John Wiley &amp;amp; Sons, Inc.</t>
+  </si>
+  <si>
+    <t>[Eléonore%Chary%NULL%0, Florent%Carsuzaa%NULL%1, Jean-Paul%Trijolet%NULL%2, Jean-Paul%Trijolet%NULL%0, Anne-Laure%Capitaine%NULL%1, Mariam%Roncato-Saberan%NULL%1, Kevin%Fouet%NULL%1, France%Cazenave-Roblot%NULL%0, Mélanie%Catroux%NULL%1, Caroline%Allix-Beguec%NULL%1, Xavier%Dufour%NULL%1]</t>
+  </si>
+  <si>
+    <t>SAGE Publications</t>
+  </si>
+  <si>
+    <t>[Andrea%De Maria%de-maria@unige.it%0, Paola%Varese%NULL%2, Paola%Varese%NULL%0, Chiara%Dentone%NULL%0, Emanuela%Barisione%NULL%0, Matteo%Bassetti%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Valeria%Dell’Era%valeria.dellera@gmail.com%0, Filippo%Farri%NULL%2, Filippo%Farri%NULL%0, Giacomo%Garzaro%NULL%1, Miriam%Gatto%NULL%1, Paolo%Aluffi Valletti%NULL%0, Massimiliano%Garzaro%NULL%0]</t>
+  </si>
+  <si>
+    <t>In late December 2019, in Wuhan (China), health authorities reported several clusters of pneumonia of unknown cause, subsequently attributed to a novel coronavirus, identified as Severe Acute Respiratory Syndrome-Coronavirus 2. Anosmia and dysgeusia have been reported as particular symptoms.
+4,5 Notably, these sensory symptoms seem to have a peculiar trend, such as usually precede the onset of respiratory symptoms.
+ So, they have been defined as “sentinel” symptoms.
+ We presented a series of COVID-19 patients.
+ Anosmia and dysgeusia frequently preceded respiratory complaints.
+ Anosmia and dysgeusia seem to be short-lived and self-resolving in COVID-19, thus a neurotoxic effect swiftly disappearing and/or cytopathic damage could be hypothesized similarly to other viral infections.
+ (www.
+actabiomedica.
+it)</t>
+  </si>
+  <si>
+    <t>[Matteo%Gelardi%NULL%0, Eleonora%Trecca%NULL%1, Michele%Cassano%NULL%1, Giorgio%Ciprandi%NULL%1]</t>
+  </si>
+  <si>
+    <t>Mattioli 1885</t>
+  </si>
+  <si>
+    <t>[Andrea%Giacomelli%andrea.giacomelli@unimi.it%0, Laura%Pezzati%NULL%4, Laura%Pezzati%NULL%0, Federico%Conti%NULL%2, Dario%Bernacchia%NULL%0, Matteo%Siano%NULL%0, Letizia%Oreni%NULL%0, Stefano%Rusconi%NULL%0, Cristina%Gervasoni%NULL%2, Anna Lisa%Ridolfo%NULL%0, Giuliano%Rizzardini%NULL%0, Spinello%Antinori%NULL%0, Massimo%Galli%NULL%0, Massimo%Galli%NULL%0]</t>
+  </si>
+  <si>
+    <t>Oxford University Press</t>
+  </si>
+  <si>
+    <t>[G.-u.%Kim%NULL%0, M.-J.%Kim%NULL%1, S.H.%Ra%NULL%1, J.%Lee%NULL%1, S.%Bae%NULL%1, J.%Jung%NULL%1, S.-H.%Kim%kimsunghanmd@hotmail.com%1]</t>
+  </si>
+  <si>
+    <t>European Society of Clinical Microbiology and Infectious Diseases. Published by Elsevier Ltd.</t>
+  </si>
+  <si>
+    <t>[T.%Klopfenstein%NULL%0, N.J.%Kadiane-Oussou%NULL%2, L.%Toko%NULL%2, P.-Y.%Royer%NULL%2, Q.%Lepiller%NULL%2, V.%Gendrin%NULL%2, S.%Zayet%NULL%2]</t>
+  </si>
+  <si>
+    <t>Elsevier Masson SAS.</t>
+  </si>
+  <si>
+    <t>[Marjolein F. Q.%Kluytmans-van den Bergh%NULL%0, Anton G. M.%Buiting%NULL%1, Suzan D.%Pas%NULL%1, Robbert G.%Bentvelsen%NULL%1, Wouter%van den Bijllaardt%NULL%1, Anne J. G.%van Oudheusden%NULL%1, Miranda M. L.%van Rijen%NULL%1, Jaco J.%Verweij%NULL%1, Marion P. G.%Koopmans%NULL%0, Jan A. J. W.%Kluytmans%NULL%1]</t>
+  </si>
+  <si>
+    <t>American Medical Association</t>
+  </si>
+  <si>
+    <t>[Frédéric%Lapostolle%frederic.lapostolle@aphp.fr%0, Elodie%Schneider%NULL%1, Isabelle%Vianu%NULL%1, Guillaume%Dollet%NULL%1, Bastien%Roche%NULL%1, Julia%Berdah%NULL%1, Julie%Michel%NULL%1, Laurent%Goix%NULL%1, Erick%Chanzy%NULL%1, Tomislav%Petrovic%NULL%1, Frédéric%Adnet%NULL%1]</t>
+  </si>
+  <si>
+    <t>Springer International Publishing</t>
+  </si>
+  <si>
+    <t>[Jerome R.%Lechien%Jerome.Lechien@umons.ac.be%0, Carlos M.%Chiesa-Estomba%NULL%2, Daniele R.%De Siati%NULL%2, Mihaela%Horoi%NULL%2, Serge D.%Le Bon%NULL%2, Alexandra%Rodriguez%NULL%2, Didier%Dequanter%NULL%2, Serge%Blecic%NULL%2, Fahd%El Afia%NULL%2, Lea%Distinguin%NULL%2, Younes%Chekkoury-Idrissi%NULL%2, Stéphane%Hans%NULL%2, Irene Lopez%Delgado%NULL%2, Christian%Calvo-Henriquez%NULL%2, Philippe%Lavigne%NULL%2, Chiara%Falanga%NULL%2, Maria Rosaria%Barillari%NULL%2, Giovanni%Cammaroto%NULL%2, Mohamad%Khalife%NULL%2, Pierre%Leich%NULL%2, Christel%Souchay%NULL%2, Camelia%Rossi%NULL%2, Fabrice%Journe%NULL%2, Julien%Hsieh%NULL%2, Myriam%Edjlali%NULL%2, Robert%Carlier%NULL%2, Laurence%Ris%NULL%2, Andrea%Lovato%NULL%2, Cosimo%De Filippis%NULL%2, Frederique%Coppee%NULL%2, Nicolas%Fakhry%NULL%2, Tareck%Ayad%NULL%2, Sven%Saussez%NULL%2]</t>
+  </si>
+  <si>
+    <t>Springer Berlin Heidelberg</t>
+  </si>
+  <si>
+    <t>[Daniel J.%Lee%NULL%0, Joel%Lockwood%NULL%2, Joel%Lockwood%NULL%0, Paul%Das%NULL%1, Ri%Wang%NULL%1, Eitan%Grinspun%NULL%1, John M.%Lee%NULL%1]</t>
+  </si>
+  <si>
+    <t>Cambridge University Press</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Initially, acute loss of smell (anosmia) and taste (ageusia) was not considered important symptoms for coronavirus disease 2019 (COVID-19).
+ To determine the prevalence of these symptoms and to evaluate their diagnostic significance, we (approximately 150 physicians of the Daegu Medical Association) prospectively collected data of cases of anosmia and ageusia from March 8, 2020, via telephone interview among 3,191 patients in Daegu, Korea.
+ Acute anosmia or ageusia was observed in 15.3% (488/3,191) patients in the early stage of COVID-19 and in 15.7% (367/2,342) patients with asymptomatic-to-mild disease severity.
+ Their prevalence was significantly more common among females and younger individuals (P = 0.01 and P &amp;lt; 0.001, respectively).
+ Most patients with anosmia or ageusia recovered within 3 weeks.
+ The median time to recovery was 7 days for both symptoms.
+ Anosmia and ageusia seem to be part of important symptoms and clues for the diagnosis of COVID-19, particularly in the early stage of the disease.
+</t>
+  </si>
+  <si>
+    <t>[Yonghyun%Lee%NULL%0, Pokkee%Min%NULL%2, Pokkee%Min%NULL%0, Seonggu%Lee%NULL%2, Seonggu%Lee%NULL%0, Shin-Woo%Kim%NULL%0, Shin-Woo%Kim%NULL%0]</t>
+  </si>
+  <si>
+    <t>The Korean Academy of Medical Sciences</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+              •
+              COVID-19 is a novel pathology due to SARS-CoV2 infection.
+</t>
+  </si>
+  <si>
+    <t>[Claudio%Liguori%NULL%0, Mariangela%Pierantozzi%NULL%3, Matteo%Spanetta%NULL%3, Loredana%Sarmati%NULL%3, Novella%Cesta%NULL%3, Marco%Iannetta%NULL%3, Josuel%Ora%NULL%3, Grazia Genga%Mina%NULL%3, Ermanno%Puxeddu%NULL%3, Ottavia%Balbi%NULL%3, Gabriella%Pezzuto%NULL%3, Andrea%Magrini%NULL%3, Paola%Rogliani%NULL%3, Massimo%Andreoni%NULL%3, Nicola Biagio%Mercuri%NULL%3]</t>
+  </si>
+  <si>
+    <t>Elsevier Inc.</t>
+  </si>
+  <si>
+    <t>[Carmen%Martín Carreras‐Presas%carmen.martin2@universidadeuropea.es%0, Juan%Amaro Sánchez%NULL%2, Juan%Amaro Sánchez%NULL%0, Antonio Francisco%López‐Sánchez%NULL%1, Enric%Jané‐Salas%NULL%1, Maria Luisa%Somacarrera Pérez%NULL%2, Maria Luisa%Somacarrera Pérez%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Simone%Meini%simonemeini2@gmail.com%0, Lorenzo Roberto%Suardi%NULL%2, Lorenzo Roberto%Suardi%NULL%0, Michele%Busoni%NULL%1, Anna Teresa%Roberts%NULL%1, Alberto%Fortini%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Muayad A.%Merza%NULL%0, Azad A.%Haleem Al Mezori%NULL%1, Hakar Mustafa%Mohammed%NULL%1, Deldar Morad%Abdulah%NULL%1]</t>
+  </si>
+  <si>
+    <t>Diabetes India. Published by Elsevier Ltd.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+              •
+              More than 25% of patients with COVID-19 were asymptomatic.
+</t>
+  </si>
+  <si>
+    <t>[Ji Yun%Noh%NULL%0, Jin Gu%Yoon%NULL%3, Hye%Seong%NULL%0, Won Suk%Choi%NULL%1, Jang Wook%Sohn%NULL%1, Hee Jin%Cheong%NULL%4, Woo Joo%Kim%NULL%4, Joon Young%Song%NULL%4]</t>
+  </si>
+  <si>
+    <t>The British Infection Association. Published by Elsevier Ltd.</t>
+  </si>
+  <si>
+    <t>[Alberto%Paderno%NULL%0, Alberto%Schreiber%NULL%1, Alberto%Grammatica%albertogrammatica@libero.it%1, Elena%Raffetti%NULL%2, Elena%Raffetti%NULL%0, Michele%Tomasoni%NULL%1, Tommaso%Gualtieri%NULL%1, Stefano%Taboni%NULL%1, Silvia%Zorzi%NULL%1, Davide%Lombardi%NULL%1, Alberto%Deganello%NULL%1, Luca Oscar%Redaelli De Zinis%NULL%1, Roberto%Maroldi%NULL%0, Davide%Mattavelli%NULL%1]</t>
+  </si>
+  <si>
+    <t>[A.%Patel%NULL%0, E.%Charani%NULL%1, D.%Ariyanayagam%NULL%1, A.%Abdulaal%NULL%1, S.J.%Denny%NULL%1, N.%Mughal%NULL%1, L.S.P.%Moore%NULL%1]</t>
+  </si>
+  <si>
+    <t>Published by Elsevier Ltd on behalf of European Society of Clinical Microbiology and Infectious Diseases.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cutaneous manifestation is a newly reported clinical manifestation of COVID-19 infection.
+ The clinical description of cutaneous manifestation is still not fully described.
+ Our patient, a medical person, had viral exanthem distributed in the extremities along with a “Spins and needles sensation,” which differs from a previously published paper on cutaneous manifestations.
+ The differential diagnosis of drug-induced skin rash and hand-foot-mouth disease was ruled out based on the patient's previous history and course of the disease.
+</t>
+  </si>
+  <si>
+    <t>[Bayushi Eka%Putra%NULL%0, Suko%Adiarto%NULL%1, Santi Rahayu%Dewayanti%NULL%1, Dafsah Arifa%Juzar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[İbrahim%Sayin%NULL%0, Kadriye Kart%Yaşar%NULL%1, Zahide Mine%Yazici%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ciro Dantas%Soares%NULL%0, Rejane Andrade%de Carvalho%NULL%1, Kalline Andrade%de Carvalho%NULL%1, Maria Goretti Freire%de Carvalho%NULL%1, Oslei Paes%de Almeida%NULL%1]</t>
+  </si>
+  <si>
+    <t>Medicina Oral S.L.</t>
+  </si>
+  <si>
+    <t>[Marlene M.%Speth%NULL%0, Thirza%Singer-Cornelius%NULL%1, Michael%Oberle%NULL%1, Isabelle%Gengler%NULL%1, Steffi J.%Brockmeier%NULL%1, Ahmad R.%Sedaghat%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ibrahim%Sultan%sultani@upmc.edu%0, Andreas%Habertheuer%NULL%2, Andreas%Habertheuer%NULL%0, Asad A.%Usman%NULL%2, Asad A.%Usman%NULL%0, Arman%Kilic%NULL%1, Eric%Gnall%NULL%2, Eric%Gnall%NULL%0, Michael E.%Friscia%NULL%1, Dmitriy%Zubkus%NULL%1, Hitoshi%Hirose%NULL%0, Pablo%Sanchez%NULL%1, Olugbenga%Okusanya%NULL%1, Wilson Y.%Szeto%NULL%1, Jacob%Gutsche%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Luigi Angelo%Vaira%luigi.vaira@gmail.com%0, Claire%Hopkins%NULL%2, Claire%Hopkins%NULL%0, Giovanni%Salzano%NULL%2, Marzia%Petrocelli%NULL%2, Andrea%Melis%NULL%1, Marco%Cucurullo%NULL%1, Mario%Ferrari%NULL%1, Laura%Gagliardini%NULL%1, Carlotta%Pipolo%NULL%1, Giovanna%Deiana%NULL%3, Vito%Fiore%NULL%1, Andrea%De Vito%NULL%0, Nicola%Turra%NULL%1, Sara%Canu%NULL%1, Angelantonio%Maglio%NULL%1, Antonello%Serra%NULL%3, Antonello%Serra%NULL%0, Francesco%Bussu%NULL%2, Giordano%Madeddu%NULL%0, Sergio%Babudieri%NULL%0, Alessandro%Giuseppe Fois%NULL%1, Pietro%Pirina%NULL%0, Francesco A.%Salzano%NULL%1, Pierluigi%De Riu%NULL%1, Federico%Biglioli%NULL%1, Giacomo%De Riu%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Carol H.%Yan%c1yan@health.ucsd.edu%0, Farhoud%Faraji%NULL%6, Farhoud%Faraji%NULL%0, Divya P.%Prajapati%NULL%4, Benjamin T.%Ostrander%NULL%2, Adam S.%DeConde%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Souheil%Zayet%souhail.zayet@gmail.com%0, Timothee%Klopfenstein%NULL%1, Julien%Mercier%NULL%1, N’dri Juliette%Kadiane-Oussou%NULL%1, Ludovic%Lan Cheong Wah%NULL%1, Pierre-Yves%Royer%NULL%1, Lynda%Toko%NULL%1, Vincent%Gendrin%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -4320,25 +4703,25 @@
         <v>43977.0</v>
       </c>
       <c r="C2" t="s">
-        <v>205</v>
+        <v>49</v>
       </c>
       <c r="D2" t="s">
-        <v>206</v>
+        <v>50</v>
       </c>
       <c r="E2" t="s">
-        <v>1159</v>
+        <v>53</v>
       </c>
       <c r="F2" t="s">
-        <v>2</v>
+        <v>54</v>
       </c>
       <c r="G2" t="s">
-        <v>208</v>
+        <v>55</v>
       </c>
       <c r="H2" t="s">
         <v>57</v>
       </c>
       <c r="I2" t="s">
-        <v>862</v>
+        <v>70</v>
       </c>
       <c r="J2" t="s">
         <v>70</v>
@@ -4355,10 +4738,10 @@
         <v>58</v>
       </c>
       <c r="D3" t="s">
-        <v>59</v>
+        <v>1255</v>
       </c>
       <c r="E3" t="s">
-        <v>1160</v>
+        <v>1256</v>
       </c>
       <c r="F3" t="s">
         <v>61</v>
@@ -4370,10 +4753,10 @@
         <v>63</v>
       </c>
       <c r="I3" t="s">
-        <v>864</v>
+        <v>70</v>
       </c>
       <c r="J3" t="s">
-        <v>70</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="4">
@@ -4384,28 +4767,28 @@
         <v>44287.0</v>
       </c>
       <c r="C4" t="s">
-        <v>421</v>
+        <v>49</v>
       </c>
       <c r="D4" t="s">
         <v>50</v>
       </c>
       <c r="E4" t="s">
-        <v>668</v>
+        <v>53</v>
       </c>
       <c r="F4" t="s">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="G4" t="s">
-        <v>423</v>
+        <v>55</v>
       </c>
       <c r="H4" t="s">
-        <v>947</v>
+        <v>57</v>
       </c>
       <c r="I4" t="s">
         <v>70</v>
       </c>
       <c r="J4" t="s">
-        <v>948</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5">
@@ -4422,7 +4805,7 @@
         <v>65</v>
       </c>
       <c r="E5" t="s">
-        <v>1161</v>
+        <v>1258</v>
       </c>
       <c r="F5" t="s">
         <v>67</v>
@@ -4434,10 +4817,10 @@
         <v>68</v>
       </c>
       <c r="I5" t="s">
-        <v>867</v>
+        <v>70</v>
       </c>
       <c r="J5" t="s">
-        <v>70</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="6">
@@ -4454,7 +4837,7 @@
         <v>70</v>
       </c>
       <c r="E6" t="s">
-        <v>1162</v>
+        <v>1260</v>
       </c>
       <c r="F6" t="s">
         <v>72</v>
@@ -4466,10 +4849,10 @@
         <v>57</v>
       </c>
       <c r="I6" t="s">
-        <v>864</v>
+        <v>70</v>
       </c>
       <c r="J6" t="s">
-        <v>70</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="7">
@@ -4480,25 +4863,25 @@
         <v>44011.0</v>
       </c>
       <c r="C7" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="D7" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="E7" t="s">
-        <v>1163</v>
+        <v>53</v>
       </c>
       <c r="F7" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="G7" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="H7" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="I7" t="s">
-        <v>862</v>
+        <v>70</v>
       </c>
       <c r="J7" t="s">
         <v>70</v>
@@ -4518,7 +4901,7 @@
         <v>70</v>
       </c>
       <c r="E8" t="s">
-        <v>1164</v>
+        <v>1262</v>
       </c>
       <c r="F8" t="s">
         <v>81</v>
@@ -4530,10 +4913,10 @@
         <v>82</v>
       </c>
       <c r="I8" t="s">
-        <v>867</v>
+        <v>70</v>
       </c>
       <c r="J8" t="s">
-        <v>70</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="9">
@@ -4550,7 +4933,7 @@
         <v>84</v>
       </c>
       <c r="E9" t="s">
-        <v>1165</v>
+        <v>1264</v>
       </c>
       <c r="F9" t="s">
         <v>86</v>
@@ -4562,10 +4945,10 @@
         <v>57</v>
       </c>
       <c r="I9" t="s">
-        <v>867</v>
+        <v>70</v>
       </c>
       <c r="J9" t="s">
-        <v>70</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="10">
@@ -4576,25 +4959,25 @@
         <v>43951.0</v>
       </c>
       <c r="C10" t="s">
-        <v>215</v>
+        <v>49</v>
       </c>
       <c r="D10" t="s">
         <v>50</v>
       </c>
       <c r="E10" t="s">
-        <v>1166</v>
+        <v>53</v>
       </c>
       <c r="F10" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="G10" t="s">
-        <v>208</v>
+        <v>55</v>
       </c>
       <c r="H10" t="s">
         <v>57</v>
       </c>
       <c r="I10" t="s">
-        <v>862</v>
+        <v>70</v>
       </c>
       <c r="J10" t="s">
         <v>70</v>
@@ -4614,7 +4997,7 @@
         <v>70</v>
       </c>
       <c r="E11" t="s">
-        <v>1167</v>
+        <v>1266</v>
       </c>
       <c r="F11" t="s">
         <v>89</v>
@@ -4626,10 +5009,10 @@
         <v>90</v>
       </c>
       <c r="I11" t="s">
-        <v>867</v>
+        <v>70</v>
       </c>
       <c r="J11" t="s">
-        <v>70</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="12">
@@ -4646,7 +5029,7 @@
         <v>92</v>
       </c>
       <c r="E12" t="s">
-        <v>1168</v>
+        <v>1267</v>
       </c>
       <c r="F12" t="s">
         <v>94</v>
@@ -4658,10 +5041,10 @@
         <v>95</v>
       </c>
       <c r="I12" t="s">
-        <v>867</v>
+        <v>70</v>
       </c>
       <c r="J12" t="s">
-        <v>70</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="13">
@@ -4675,10 +5058,10 @@
         <v>96</v>
       </c>
       <c r="D13" t="s">
-        <v>97</v>
+        <v>1268</v>
       </c>
       <c r="E13" t="s">
-        <v>1169</v>
+        <v>1269</v>
       </c>
       <c r="F13" t="s">
         <v>99</v>
@@ -4690,10 +5073,10 @@
         <v>100</v>
       </c>
       <c r="I13" t="s">
-        <v>250</v>
+        <v>70</v>
       </c>
       <c r="J13" t="s">
-        <v>70</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="14">
@@ -4710,7 +5093,7 @@
         <v>70</v>
       </c>
       <c r="E14" t="s">
-        <v>1170</v>
+        <v>1271</v>
       </c>
       <c r="F14" t="s">
         <v>103</v>
@@ -4722,10 +5105,10 @@
         <v>57</v>
       </c>
       <c r="I14" t="s">
-        <v>867</v>
+        <v>70</v>
       </c>
       <c r="J14" t="s">
-        <v>70</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="15">
@@ -4742,7 +5125,7 @@
         <v>105</v>
       </c>
       <c r="E15" t="s">
-        <v>1171</v>
+        <v>1273</v>
       </c>
       <c r="F15" t="s">
         <v>107</v>
@@ -4754,10 +5137,10 @@
         <v>108</v>
       </c>
       <c r="I15" t="s">
-        <v>864</v>
+        <v>70</v>
       </c>
       <c r="J15" t="s">
-        <v>70</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="16">
@@ -4774,7 +5157,7 @@
         <v>110</v>
       </c>
       <c r="E16" t="s">
-        <v>1172</v>
+        <v>1275</v>
       </c>
       <c r="F16" t="s">
         <v>112</v>
@@ -4786,10 +5169,10 @@
         <v>113</v>
       </c>
       <c r="I16" t="s">
-        <v>864</v>
+        <v>70</v>
       </c>
       <c r="J16" t="s">
-        <v>70</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="17">
@@ -4806,7 +5189,7 @@
         <v>115</v>
       </c>
       <c r="E17" t="s">
-        <v>1173</v>
+        <v>1277</v>
       </c>
       <c r="F17" t="s">
         <v>117</v>
@@ -4818,10 +5201,10 @@
         <v>118</v>
       </c>
       <c r="I17" t="s">
-        <v>867</v>
+        <v>70</v>
       </c>
       <c r="J17" t="s">
-        <v>70</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="18">
@@ -4838,7 +5221,7 @@
         <v>120</v>
       </c>
       <c r="E18" t="s">
-        <v>1174</v>
+        <v>1279</v>
       </c>
       <c r="F18" t="s">
         <v>122</v>
@@ -4850,10 +5233,10 @@
         <v>123</v>
       </c>
       <c r="I18" t="s">
-        <v>881</v>
+        <v>70</v>
       </c>
       <c r="J18" t="s">
-        <v>70</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="19">
@@ -4867,10 +5250,10 @@
         <v>124</v>
       </c>
       <c r="D19" t="s">
-        <v>603</v>
+        <v>125</v>
       </c>
       <c r="E19" t="s">
-        <v>1175</v>
+        <v>1281</v>
       </c>
       <c r="F19" t="s">
         <v>127</v>
@@ -4882,10 +5265,10 @@
         <v>128</v>
       </c>
       <c r="I19" t="s">
-        <v>881</v>
+        <v>70</v>
       </c>
       <c r="J19" t="s">
-        <v>70</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="20">
@@ -4902,7 +5285,7 @@
         <v>130</v>
       </c>
       <c r="E20" t="s">
-        <v>1176</v>
+        <v>1283</v>
       </c>
       <c r="F20" t="s">
         <v>132</v>
@@ -4914,10 +5297,10 @@
         <v>57</v>
       </c>
       <c r="I20" t="s">
-        <v>867</v>
+        <v>70</v>
       </c>
       <c r="J20" t="s">
-        <v>70</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="21">
@@ -4931,10 +5314,10 @@
         <v>133</v>
       </c>
       <c r="D21" t="s">
-        <v>134</v>
+        <v>1285</v>
       </c>
       <c r="E21" t="s">
-        <v>1177</v>
+        <v>1286</v>
       </c>
       <c r="F21" t="s">
         <v>136</v>
@@ -4946,10 +5329,10 @@
         <v>137</v>
       </c>
       <c r="I21" t="s">
-        <v>867</v>
+        <v>70</v>
       </c>
       <c r="J21" t="s">
-        <v>70</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="22">
@@ -4960,28 +5343,28 @@
         <v>23</v>
       </c>
       <c r="C22" t="s">
-        <v>442</v>
+        <v>49</v>
       </c>
       <c r="D22" t="s">
         <v>50</v>
       </c>
       <c r="E22" t="s">
-        <v>686</v>
+        <v>53</v>
       </c>
       <c r="F22" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="G22" t="s">
-        <v>423</v>
+        <v>55</v>
       </c>
       <c r="H22" t="s">
-        <v>947</v>
+        <v>57</v>
       </c>
       <c r="I22" t="s">
         <v>70</v>
       </c>
       <c r="J22" t="s">
-        <v>967</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23">
@@ -4995,10 +5378,10 @@
         <v>138</v>
       </c>
       <c r="D23" t="s">
-        <v>139</v>
+        <v>1288</v>
       </c>
       <c r="E23" t="s">
-        <v>1178</v>
+        <v>1289</v>
       </c>
       <c r="F23" t="s">
         <v>141</v>
@@ -5010,10 +5393,10 @@
         <v>95</v>
       </c>
       <c r="I23" t="s">
-        <v>864</v>
+        <v>70</v>
       </c>
       <c r="J23" t="s">
-        <v>70</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="24">
@@ -5024,28 +5407,28 @@
         <v>43983.0</v>
       </c>
       <c r="C24" t="s">
-        <v>446</v>
+        <v>49</v>
       </c>
       <c r="D24" t="s">
         <v>50</v>
       </c>
       <c r="E24" t="s">
-        <v>688</v>
+        <v>53</v>
       </c>
       <c r="F24" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="G24" t="s">
-        <v>423</v>
+        <v>55</v>
       </c>
       <c r="H24" t="s">
-        <v>947</v>
+        <v>57</v>
       </c>
       <c r="I24" t="s">
         <v>70</v>
       </c>
       <c r="J24" t="s">
-        <v>969</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25">
@@ -5062,7 +5445,7 @@
         <v>70</v>
       </c>
       <c r="E25" t="s">
-        <v>1179</v>
+        <v>1291</v>
       </c>
       <c r="F25" t="s">
         <v>144</v>
@@ -5074,10 +5457,10 @@
         <v>145</v>
       </c>
       <c r="I25" t="s">
-        <v>867</v>
+        <v>70</v>
       </c>
       <c r="J25" t="s">
-        <v>70</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="26">
@@ -5091,10 +5474,10 @@
         <v>146</v>
       </c>
       <c r="D26" t="s">
-        <v>611</v>
+        <v>147</v>
       </c>
       <c r="E26" t="s">
-        <v>1180</v>
+        <v>1292</v>
       </c>
       <c r="F26" t="s">
         <v>149</v>
@@ -5106,10 +5489,10 @@
         <v>150</v>
       </c>
       <c r="I26" t="s">
-        <v>881</v>
+        <v>70</v>
       </c>
       <c r="J26" t="s">
-        <v>70</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="27">
@@ -5120,25 +5503,25 @@
         <v>44044.0</v>
       </c>
       <c r="C27" t="s">
-        <v>231</v>
+        <v>49</v>
       </c>
       <c r="D27" t="s">
         <v>50</v>
       </c>
       <c r="E27" t="s">
-        <v>232</v>
+        <v>53</v>
       </c>
       <c r="F27" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="G27" t="s">
-        <v>208</v>
+        <v>55</v>
       </c>
       <c r="H27" t="s">
         <v>57</v>
       </c>
       <c r="I27" t="s">
-        <v>862</v>
+        <v>70</v>
       </c>
       <c r="J27" t="s">
         <v>70</v>
@@ -5158,7 +5541,7 @@
         <v>152</v>
       </c>
       <c r="E28" t="s">
-        <v>1181</v>
+        <v>1293</v>
       </c>
       <c r="F28" t="s">
         <v>154</v>
@@ -5170,10 +5553,10 @@
         <v>155</v>
       </c>
       <c r="I28" t="s">
-        <v>864</v>
+        <v>70</v>
       </c>
       <c r="J28" t="s">
-        <v>70</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="29">
@@ -5187,10 +5570,10 @@
         <v>156</v>
       </c>
       <c r="D29" t="s">
-        <v>157</v>
+        <v>1295</v>
       </c>
       <c r="E29" t="s">
-        <v>1182</v>
+        <v>1296</v>
       </c>
       <c r="F29" t="s">
         <v>159</v>
@@ -5202,10 +5585,10 @@
         <v>160</v>
       </c>
       <c r="I29" t="s">
-        <v>864</v>
+        <v>70</v>
       </c>
       <c r="J29" t="s">
-        <v>70</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="30">
@@ -5222,7 +5605,7 @@
         <v>162</v>
       </c>
       <c r="E30" t="s">
-        <v>1183</v>
+        <v>1298</v>
       </c>
       <c r="F30" t="s">
         <v>164</v>
@@ -5234,10 +5617,10 @@
         <v>165</v>
       </c>
       <c r="I30" t="s">
-        <v>867</v>
+        <v>70</v>
       </c>
       <c r="J30" t="s">
-        <v>70</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="31">
@@ -5254,7 +5637,7 @@
         <v>167</v>
       </c>
       <c r="E31" t="s">
-        <v>1184</v>
+        <v>1299</v>
       </c>
       <c r="F31" t="s">
         <v>169</v>
@@ -5266,10 +5649,10 @@
         <v>170</v>
       </c>
       <c r="I31" t="s">
-        <v>864</v>
+        <v>70</v>
       </c>
       <c r="J31" t="s">
-        <v>70</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="32">
@@ -5283,10 +5666,10 @@
         <v>171</v>
       </c>
       <c r="D32" t="s">
-        <v>172</v>
+        <v>1301</v>
       </c>
       <c r="E32" t="s">
-        <v>1185</v>
+        <v>1302</v>
       </c>
       <c r="F32" t="s">
         <v>174</v>
@@ -5298,10 +5681,10 @@
         <v>90</v>
       </c>
       <c r="I32" t="s">
-        <v>864</v>
+        <v>70</v>
       </c>
       <c r="J32" t="s">
-        <v>70</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="33">
@@ -5312,28 +5695,28 @@
         <v>44068.0</v>
       </c>
       <c r="C33" t="s">
-        <v>456</v>
+        <v>49</v>
       </c>
       <c r="D33" t="s">
-        <v>457</v>
+        <v>50</v>
       </c>
       <c r="E33" t="s">
-        <v>696</v>
+        <v>53</v>
       </c>
       <c r="F33" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="G33" t="s">
-        <v>423</v>
+        <v>55</v>
       </c>
       <c r="H33" t="s">
-        <v>978</v>
+        <v>57</v>
       </c>
       <c r="I33" t="s">
         <v>70</v>
       </c>
       <c r="J33" t="s">
-        <v>979</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34">
@@ -5350,7 +5733,7 @@
         <v>176</v>
       </c>
       <c r="E34" t="s">
-        <v>1186</v>
+        <v>1303</v>
       </c>
       <c r="F34" t="s">
         <v>178</v>
@@ -5362,10 +5745,10 @@
         <v>179</v>
       </c>
       <c r="I34" t="s">
-        <v>867</v>
+        <v>70</v>
       </c>
       <c r="J34" t="s">
-        <v>70</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="35">
@@ -5376,28 +5759,28 @@
         <v>43985.0</v>
       </c>
       <c r="C35" t="s">
-        <v>460</v>
+        <v>49</v>
       </c>
       <c r="D35" t="s">
         <v>50</v>
       </c>
       <c r="E35" t="s">
-        <v>698</v>
+        <v>53</v>
       </c>
       <c r="F35" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="G35" t="s">
-        <v>423</v>
+        <v>55</v>
       </c>
       <c r="H35" t="s">
-        <v>462</v>
+        <v>57</v>
       </c>
       <c r="I35" t="s">
         <v>70</v>
       </c>
       <c r="J35" t="s">
-        <v>982</v>
+        <v>70</v>
       </c>
     </row>
     <row r="36">
@@ -5414,7 +5797,7 @@
         <v>70</v>
       </c>
       <c r="E36" t="s">
-        <v>1187</v>
+        <v>1304</v>
       </c>
       <c r="F36" t="s">
         <v>182</v>
@@ -5426,10 +5809,10 @@
         <v>63</v>
       </c>
       <c r="I36" t="s">
-        <v>867</v>
+        <v>70</v>
       </c>
       <c r="J36" t="s">
-        <v>70</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="37">
@@ -5446,7 +5829,7 @@
         <v>184</v>
       </c>
       <c r="E37" t="s">
-        <v>1188</v>
+        <v>1306</v>
       </c>
       <c r="F37" t="s">
         <v>186</v>
@@ -5458,10 +5841,10 @@
         <v>137</v>
       </c>
       <c r="I37" t="s">
-        <v>867</v>
+        <v>70</v>
       </c>
       <c r="J37" t="s">
-        <v>70</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="38">
@@ -5478,7 +5861,7 @@
         <v>188</v>
       </c>
       <c r="E38" t="s">
-        <v>1189</v>
+        <v>1307</v>
       </c>
       <c r="F38" t="s">
         <v>190</v>
@@ -5490,10 +5873,10 @@
         <v>68</v>
       </c>
       <c r="I38" t="s">
-        <v>867</v>
+        <v>70</v>
       </c>
       <c r="J38" t="s">
-        <v>70</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="39">
@@ -5510,7 +5893,7 @@
         <v>192</v>
       </c>
       <c r="E39" t="s">
-        <v>1190</v>
+        <v>1308</v>
       </c>
       <c r="F39" t="s">
         <v>194</v>
@@ -5522,10 +5905,10 @@
         <v>195</v>
       </c>
       <c r="I39" t="s">
-        <v>867</v>
+        <v>70</v>
       </c>
       <c r="J39" t="s">
-        <v>70</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="40">
@@ -5542,7 +5925,7 @@
         <v>197</v>
       </c>
       <c r="E40" t="s">
-        <v>1191</v>
+        <v>1309</v>
       </c>
       <c r="F40" t="s">
         <v>199</v>
@@ -5554,10 +5937,10 @@
         <v>200</v>
       </c>
       <c r="I40" t="s">
-        <v>867</v>
+        <v>70</v>
       </c>
       <c r="J40" t="s">
-        <v>70</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="41">
@@ -5574,7 +5957,7 @@
         <v>70</v>
       </c>
       <c r="E41" t="s">
-        <v>1192</v>
+        <v>1310</v>
       </c>
       <c r="F41" t="s">
         <v>203</v>
@@ -5586,10 +5969,10 @@
         <v>204</v>
       </c>
       <c r="I41" t="s">
-        <v>881</v>
+        <v>70</v>
       </c>
       <c r="J41" t="s">
-        <v>70</v>
+        <v>1282</v>
       </c>
     </row>
   </sheetData>
